--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.811056182679</v>
+        <v>69.14491266666667</v>
       </c>
       <c r="H2">
-        <v>7.811056182679</v>
+        <v>207.434738</v>
       </c>
       <c r="I2">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189329</v>
       </c>
       <c r="J2">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189327</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.811056182679</v>
+        <v>69.14491266666667</v>
       </c>
       <c r="N2">
-        <v>7.811056182679</v>
+        <v>207.434738</v>
       </c>
       <c r="O2">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189329</v>
       </c>
       <c r="P2">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189327</v>
       </c>
       <c r="Q2">
-        <v>61.01259868896783</v>
+        <v>4781.018947680961</v>
       </c>
       <c r="R2">
-        <v>61.01259868896783</v>
+        <v>43029.17052912865</v>
       </c>
       <c r="S2">
-        <v>0.1017383605906554</v>
+        <v>0.6472202365148632</v>
       </c>
       <c r="T2">
-        <v>0.1017383605906554</v>
+        <v>0.6472202365148628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,52 +587,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.811056182679</v>
+        <v>69.14491266666667</v>
       </c>
       <c r="H3">
-        <v>7.811056182679</v>
+        <v>207.434738</v>
       </c>
       <c r="I3">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189329</v>
       </c>
       <c r="J3">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189327</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.7514965968151</v>
+        <v>13.76110233333333</v>
       </c>
       <c r="N3">
-        <v>13.7514965968151</v>
+        <v>41.283307</v>
       </c>
       <c r="O3">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445234</v>
       </c>
       <c r="P3">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445233</v>
       </c>
       <c r="Q3">
-        <v>107.4137125136418</v>
+        <v>951.5102190353963</v>
       </c>
       <c r="R3">
-        <v>107.4137125136418</v>
+        <v>8563.591971318567</v>
       </c>
       <c r="S3">
-        <v>0.1791121055473069</v>
+        <v>0.1288086652133246</v>
       </c>
       <c r="T3">
-        <v>0.1791121055473069</v>
+        <v>0.1288086652133245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,52 +649,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.811056182679</v>
+        <v>69.14491266666667</v>
       </c>
       <c r="H4">
-        <v>7.811056182679</v>
+        <v>207.434738</v>
       </c>
       <c r="I4">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189329</v>
       </c>
       <c r="J4">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189327</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.92624099815742</v>
+        <v>3.041671</v>
       </c>
       <c r="N4">
-        <v>2.92624099815742</v>
+        <v>9.125013000000001</v>
       </c>
       <c r="O4">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="P4">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="Q4">
-        <v>22.85703284066628</v>
+        <v>210.3160756557327</v>
       </c>
       <c r="R4">
-        <v>22.85703284066628</v>
+        <v>1892.844680901594</v>
       </c>
       <c r="S4">
-        <v>0.03811404692055247</v>
+        <v>0.02847108989074531</v>
       </c>
       <c r="T4">
-        <v>0.03811404692055247</v>
+        <v>0.02847108989074529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,52 +711,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7514965968151</v>
+        <v>13.76110233333333</v>
       </c>
       <c r="H5">
-        <v>13.7514965968151</v>
+        <v>41.283307</v>
       </c>
       <c r="I5">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445234</v>
       </c>
       <c r="J5">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.811056182679</v>
+        <v>69.14491266666667</v>
       </c>
       <c r="N5">
-        <v>7.811056182679</v>
+        <v>207.434738</v>
       </c>
       <c r="O5">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189329</v>
       </c>
       <c r="P5">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189327</v>
       </c>
       <c r="Q5">
-        <v>107.4137125136418</v>
+        <v>951.5102190353963</v>
       </c>
       <c r="R5">
-        <v>107.4137125136418</v>
+        <v>8563.591971318567</v>
       </c>
       <c r="S5">
-        <v>0.1791121055473069</v>
+        <v>0.1288086652133246</v>
       </c>
       <c r="T5">
-        <v>0.1791121055473069</v>
+        <v>0.1288086652133245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,52 +773,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.7514965968151</v>
+        <v>13.76110233333333</v>
       </c>
       <c r="H6">
-        <v>13.7514965968151</v>
+        <v>41.283307</v>
       </c>
       <c r="I6">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445234</v>
       </c>
       <c r="J6">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.7514965968151</v>
+        <v>13.76110233333333</v>
       </c>
       <c r="N6">
-        <v>13.7514965968151</v>
+        <v>41.283307</v>
       </c>
       <c r="O6">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445234</v>
       </c>
       <c r="P6">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445233</v>
       </c>
       <c r="Q6">
-        <v>189.1036586522173</v>
+        <v>189.3679374284721</v>
       </c>
       <c r="R6">
-        <v>189.1036586522173</v>
+        <v>1704.311436856249</v>
       </c>
       <c r="S6">
-        <v>0.3153298929463607</v>
+        <v>0.02563528038520675</v>
       </c>
       <c r="T6">
-        <v>0.3153298929463607</v>
+        <v>0.02563528038520673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,52 +835,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.7514965968151</v>
+        <v>13.76110233333333</v>
       </c>
       <c r="H7">
-        <v>13.7514965968151</v>
+        <v>41.283307</v>
       </c>
       <c r="I7">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445234</v>
       </c>
       <c r="J7">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.92624099815742</v>
+        <v>3.041671</v>
       </c>
       <c r="N7">
-        <v>2.92624099815742</v>
+        <v>9.125013000000001</v>
       </c>
       <c r="O7">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="P7">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="Q7">
-        <v>40.24019312762258</v>
+        <v>41.85674589533234</v>
       </c>
       <c r="R7">
-        <v>40.24019312762258</v>
+        <v>376.710713057991</v>
       </c>
       <c r="S7">
-        <v>0.06710042461108844</v>
+        <v>0.005666267645992037</v>
       </c>
       <c r="T7">
-        <v>0.06710042461108844</v>
+        <v>0.005666267645992034</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,52 +897,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.92624099815742</v>
+        <v>3.041671</v>
       </c>
       <c r="H8">
-        <v>2.92624099815742</v>
+        <v>9.125013000000001</v>
       </c>
       <c r="I8">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="J8">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.811056182679</v>
+        <v>69.14491266666667</v>
       </c>
       <c r="N8">
-        <v>7.811056182679</v>
+        <v>207.434738</v>
       </c>
       <c r="O8">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189329</v>
       </c>
       <c r="P8">
-        <v>0.3189645130585146</v>
+        <v>0.8044999916189327</v>
       </c>
       <c r="Q8">
-        <v>22.85703284066628</v>
+        <v>210.3160756557327</v>
       </c>
       <c r="R8">
-        <v>22.85703284066628</v>
+        <v>1892.844680901594</v>
       </c>
       <c r="S8">
-        <v>0.03811404692055247</v>
+        <v>0.02847108989074531</v>
       </c>
       <c r="T8">
-        <v>0.03811404692055247</v>
+        <v>0.02847108989074529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,52 +959,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.92624099815742</v>
+        <v>3.041671</v>
       </c>
       <c r="H9">
-        <v>2.92624099815742</v>
+        <v>9.125013000000001</v>
       </c>
       <c r="I9">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="J9">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.7514965968151</v>
+        <v>13.76110233333333</v>
       </c>
       <c r="N9">
-        <v>13.7514965968151</v>
+        <v>41.283307</v>
       </c>
       <c r="O9">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445234</v>
       </c>
       <c r="P9">
-        <v>0.5615424231047559</v>
+        <v>0.1601102132445233</v>
       </c>
       <c r="Q9">
-        <v>40.24019312762258</v>
+        <v>41.85674589533234</v>
       </c>
       <c r="R9">
-        <v>40.24019312762258</v>
+        <v>376.710713057991</v>
       </c>
       <c r="S9">
-        <v>0.06710042461108844</v>
+        <v>0.005666267645992037</v>
       </c>
       <c r="T9">
-        <v>0.06710042461108844</v>
+        <v>0.005666267645992034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,52 +1021,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.92624099815742</v>
+        <v>3.041671</v>
       </c>
       <c r="H10">
-        <v>2.92624099815742</v>
+        <v>9.125013000000001</v>
       </c>
       <c r="I10">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="J10">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.92624099815742</v>
+        <v>3.041671</v>
       </c>
       <c r="N10">
-        <v>2.92624099815742</v>
+        <v>9.125013000000001</v>
       </c>
       <c r="O10">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="P10">
-        <v>0.1194930638367296</v>
+        <v>0.03538979513654388</v>
       </c>
       <c r="Q10">
-        <v>8.562886379297332</v>
+        <v>9.251762472241003</v>
       </c>
       <c r="R10">
-        <v>8.562886379297332</v>
+        <v>83.26586225016902</v>
       </c>
       <c r="S10">
-        <v>0.01427859230508874</v>
+        <v>0.001252437599806545</v>
       </c>
       <c r="T10">
-        <v>0.01427859230508874</v>
+        <v>0.001252437599806545</v>
       </c>
     </row>
   </sheetData>
